--- a/tests/testthat/testdata/struct_tests4.xlsx
+++ b/tests/testthat/testdata/struct_tests4.xlsx
@@ -8,28 +8,17 @@
   <sheets>
     <sheet name="timeseries" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>source</t>
   </si>
@@ -64,55 +53,85 @@
     <t>series_code</t>
   </si>
   <si>
-    <t>umar</t>
-  </si>
-  <si>
     <t>Maja Založnik</t>
   </si>
   <si>
+    <t>table 1</t>
+  </si>
+  <si>
     <t>dff</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>dsf</t>
+  </si>
+  <si>
     <t>%</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>sdt</t>
   </si>
   <si>
-    <t>table 1</t>
+    <t>MZ006</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>ffs</t>
+  </si>
+  <si>
+    <t>sdffs</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>sdsd</t>
   </si>
   <si>
     <t>table 2 wiht a longer title</t>
   </si>
   <si>
-    <t>dsf</t>
-  </si>
-  <si>
-    <t>ffs</t>
-  </si>
-  <si>
-    <t>sdsd</t>
-  </si>
-  <si>
     <t>mer--geo</t>
   </si>
   <si>
     <t>2--1</t>
   </si>
   <si>
+    <t>lkj--11</t>
+  </si>
+  <si>
+    <t>MZ007</t>
+  </si>
+  <si>
     <t>2--2</t>
   </si>
   <si>
-    <t>lkj--11</t>
-  </si>
-  <si>
     <t>lkj--12</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>sdffs</t>
+    <t>umar, surs</t>
+  </si>
+  <si>
+    <t>UMAR-SURS--MZ006--DSF--M</t>
+  </si>
+  <si>
+    <t>UMAR-SURS--MZ006--FFS--M</t>
+  </si>
+  <si>
+    <t>UMAR-SURS--MZ006--SDSD--M</t>
+  </si>
+  <si>
+    <t>UMAR-SURS--MZ007--LKJ--11--M</t>
+  </si>
+  <si>
+    <t>UMAR-SURS--MZ007--LKJ--12--M</t>
   </si>
   <si>
     <t xml:space="preserve">source</t>
@@ -148,7 +167,7 @@
     <t xml:space="preserve">series_code</t>
   </si>
   <si>
-    <t xml:space="preserve">umar</t>
+    <t xml:space="preserve">umar, surs</t>
   </si>
   <si>
     <t xml:space="preserve">Maja Založnik</t>
@@ -178,7 +197,7 @@
     <t xml:space="preserve">MZ006</t>
   </si>
   <si>
-    <t xml:space="preserve">UMAR--MZ006--DSF--M</t>
+    <t xml:space="preserve">UMAR-SURS--MZ006--DSF--M</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
@@ -190,7 +209,7 @@
     <t xml:space="preserve">sdffs</t>
   </si>
   <si>
-    <t xml:space="preserve">UMAR--MZ006--FFS--M</t>
+    <t xml:space="preserve">UMAR-SURS--MZ006--FFS--M</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
@@ -199,7 +218,7 @@
     <t xml:space="preserve">sdsd</t>
   </si>
   <si>
-    <t xml:space="preserve">UMAR--MZ006--SDSD--M</t>
+    <t xml:space="preserve">UMAR-SURS--MZ006--SDSD--M</t>
   </si>
   <si>
     <t xml:space="preserve">table 2 wiht a longer title</t>
@@ -217,7 +236,7 @@
     <t xml:space="preserve">MZ007</t>
   </si>
   <si>
-    <t xml:space="preserve">UMAR--MZ007--LKJ--11--M</t>
+    <t xml:space="preserve">UMAR-SURS--MZ007--LKJ--11--M</t>
   </si>
   <si>
     <t xml:space="preserve">2--2</t>
@@ -226,7 +245,7 @@
     <t xml:space="preserve">lkj--12</t>
   </si>
   <si>
-    <t xml:space="preserve">UMAR--MZ007--LKJ--12--M</t>
+    <t xml:space="preserve">UMAR-SURS--MZ007--LKJ--12--M</t>
   </si>
 </sst>
 </file>
@@ -583,223 +602,223 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
         <v>55</v>
       </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>